--- a/Temp_Data_Storage/student_id_patterns_by_file.xlsx
+++ b/Temp_Data_Storage/student_id_patterns_by_file.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\_Data_Lake_Prototype\Projects\CAIR\2025\Temp_Data_Storage\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E258F60-3314-4BE8-AE35-0576BB63B01C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{CC3C2DD9-904B-41F7-B440-A494FA4D1917}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="465" yWindow="930" windowWidth="38700" windowHeight="18870" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6750" yWindow="1425" windowWidth="23475" windowHeight="18870" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -22,130 +22,10 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="82">
   <si>
-    <t>File_Name</t>
-  </si>
-  <si>
-    <t>Regex_Pattern</t>
-  </si>
-  <si>
-    <t>^A\d-\d{4}$</t>
-  </si>
-  <si>
-    <t>^STU\d{1,2}\d{5}$</t>
-  </si>
-  <si>
-    <t>^\dX\d{3}$</t>
-  </si>
-  <si>
-    <t>^S\d_\d{4}$</t>
-  </si>
-  <si>
-    <t>^ID\d-[A-Z]\d{4}$</t>
-  </si>
-  <si>
-    <t>^[A-Z]\d{1,2}\d{5}$</t>
-  </si>
-  <si>
-    <t>^[STU]\d-\d{3}$</t>
-  </si>
-  <si>
-    <t>^[A-Z]{2}-\d{1,2}\s?\d{4}$</t>
-  </si>
-  <si>
-    <t>^\d[A-C]\d{4}$</t>
-  </si>
-  <si>
-    <t>^ST\d{1,2}-[XYZ]\d{4}$</t>
-  </si>
-  <si>
-    <t>^\d{1,2}-(ALPHA|BETA|GAMMA)-\d{3}$</t>
-  </si>
-  <si>
-    <t>^COL\d{1,2}\d{2}-\d{4}$</t>
-  </si>
-  <si>
-    <t>^[A-Z]\d{1,2}[a-z]-\d{5}$</t>
-  </si>
-  <si>
-    <t>^STUDENT\d{1,2}\d{3}$</t>
-  </si>
-  <si>
-    <t>^[ABC]\d{1,2}[ZYX]-\d{4}$</t>
-  </si>
-  <si>
-    <t>^\d{1,2}\.\d{4}$</t>
-  </si>
-  <si>
-    <t>^\d{1,2}/\d{4}$</t>
-  </si>
-  <si>
-    <t>^\d{1,2}-S\d{4}$</t>
-  </si>
-  <si>
-    <t>^UNI\d{1,2}_\d{5}$</t>
-  </si>
-  <si>
-    <t>^\d{1,2}STU-\d{4}$</t>
-  </si>
-  <si>
-    <t>^R\d{1,2}-[0-9A-F]{4}$</t>
-  </si>
-  <si>
-    <t>^\d{1,2}R\d{4}A$</t>
-  </si>
-  <si>
-    <t>^\d{7,8}$</t>
-  </si>
-  <si>
-    <t>^[NEW]\d{1,2}\d{4}[AB]$</t>
-  </si>
-  <si>
-    <t>^\d{1,2}-ID-\d{5}$</t>
-  </si>
-  <si>
-    <t>^\d{1,2}_ID_\d{5}$</t>
-  </si>
-  <si>
-    <t>^\d{1,2}::\d{4}$</t>
-  </si>
-  <si>
-    <t>^P\d{1,2}-\d{3}-Q$</t>
-  </si>
-  <si>
-    <t>^X\d{1,2}\d{4}X$</t>
-  </si>
-  <si>
-    <t>^\d{1,2}-\d{4}-S$</t>
-  </si>
-  <si>
-    <t>^\d{1,2}_S_\d{4}$</t>
-  </si>
-  <si>
-    <t>^\d{1,2}-STU-\d{3}$</t>
-  </si>
-  <si>
-    <t>^(AA|BB|CC)\d{1,2}\d{5}$</t>
-  </si>
-  <si>
-    <t>^Z\d{1,2}-\d{5}-Z$</t>
-  </si>
-  <si>
-    <t>^\d{1,2}::[XY]\d{4}$</t>
-  </si>
-  <si>
-    <t>^\d{1,2}-U-\d{4}-[NS]$</t>
-  </si>
-  <si>
-    <t>^\d{1,2}[LMN]-\d{4}$</t>
-  </si>
-  <si>
-    <t>^T\d{1,2}\d{4}-[PQ]$</t>
-  </si>
-  <si>
-    <t>^\d{1,2}A\d{4}[KJ]$</t>
-  </si>
-  <si>
-    <t>^\d{1,2}-R\d{4}-[12]$</t>
+    <t>College Name</t>
+  </si>
+  <si>
+    <t>Regex Pattern</t>
   </si>
   <si>
     <t>Starfleet_Academy</t>
@@ -266,6 +146,126 @@
   </si>
   <si>
     <t>Vault-Tec_Technical_College</t>
+  </si>
+  <si>
+    <t>^SF\d{5,7}$</t>
+  </si>
+  <si>
+    <t>^1\d{6,8}$</t>
+  </si>
+  <si>
+    <t>^\d{3}[A-Z]{1}\d{3}$</t>
+  </si>
+  <si>
+    <t>^\d{7,9}$</t>
+  </si>
+  <si>
+    <t>^[A-Z]{1}\d{6,8}$</t>
+  </si>
+  <si>
+    <t>^4\d{6,8}$</t>
+  </si>
+  <si>
+    <t>^\d{3}-\d{4}$</t>
+  </si>
+  <si>
+    <t>^\d{5}[A-Z]{2}$</t>
+  </si>
+  <si>
+    <t>^\d{2}[A-Z]{1}\d{5}$</t>
+  </si>
+  <si>
+    <t>^\d{8}$</t>
+  </si>
+  <si>
+    <t>^2\d{6,7}$</t>
+  </si>
+  <si>
+    <t>^\d{4}[A-Z]{1}\d{3}$</t>
+  </si>
+  <si>
+    <t>^\d{3}-[A-Z]{1}\d{3}$</t>
+  </si>
+  <si>
+    <t>^[A-Z]{2}\d{5,7}$</t>
+  </si>
+  <si>
+    <t>^\d{9,10}$</t>
+  </si>
+  <si>
+    <t>^7\d{6,7}$</t>
+  </si>
+  <si>
+    <t>^[A-Z]{1}\d{5}-\d{2}$</t>
+  </si>
+  <si>
+    <t>^\d{4}[A-Z]{2}\d{2}$</t>
+  </si>
+  <si>
+    <t>^\d{3,4}-\d{3,4}$</t>
+  </si>
+  <si>
+    <t>^CC\d{5,7}$</t>
+  </si>
+  <si>
+    <t>^13\d{5,6}$</t>
+  </si>
+  <si>
+    <t>^\d{6}[A-Z]{1}$</t>
+  </si>
+  <si>
+    <t>^T\d{6,8}$</t>
+  </si>
+  <si>
+    <t>^\d{7}$</t>
+  </si>
+  <si>
+    <t>^\d{5}-[A-Z]{1}\d{2}$</t>
+  </si>
+  <si>
+    <t>^EP\d{5,6}$</t>
+  </si>
+  <si>
+    <t>^\d{8,9}$</t>
+  </si>
+  <si>
+    <t>^[A-Z]{1}\d{6}$</t>
+  </si>
+  <si>
+    <t>^\d{3}[A-Z]{1}\d{4}$</t>
+  </si>
+  <si>
+    <t>^W-\d{6,7}$</t>
+  </si>
+  <si>
+    <t>^21\d{5,7}$</t>
+  </si>
+  <si>
+    <t>^\d{4}-\d{3}$</t>
+  </si>
+  <si>
+    <t>^\d{9}$</t>
+  </si>
+  <si>
+    <t>^K\d{6,8}$</t>
+  </si>
+  <si>
+    <t>^\d{2}-\d{5}$</t>
+  </si>
+  <si>
+    <t>^\d{5}[A-Z]{1}\d{2}$</t>
+  </si>
+  <si>
+    <t>^\d{10}$</t>
+  </si>
+  <si>
+    <t>^9\d{6,7}$</t>
+  </si>
+  <si>
+    <t>^\d{3}[A-Z]{2}\d{3}$</t>
+  </si>
+  <si>
+    <t>^VT-\d{5}$</t>
   </si>
 </sst>
 </file>
@@ -636,12 +636,12 @@
   <dimension ref="A1:B41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
+      <selection activeCell="E39" sqref="E39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="36.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -654,322 +654,322 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
         <v>42</v>
-      </c>
-      <c r="B2" t="s">
-        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" t="s">
         <v>43</v>
-      </c>
-      <c r="B3" t="s">
-        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" t="s">
         <v>44</v>
-      </c>
-      <c r="B4" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" t="s">
         <v>45</v>
-      </c>
-      <c r="B5" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" t="s">
         <v>46</v>
-      </c>
-      <c r="B6" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" t="s">
         <v>47</v>
-      </c>
-      <c r="B7" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" t="s">
         <v>48</v>
-      </c>
-      <c r="B8" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" t="s">
         <v>49</v>
-      </c>
-      <c r="B9" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" t="s">
         <v>50</v>
-      </c>
-      <c r="B10" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11" t="s">
         <v>51</v>
-      </c>
-      <c r="B11" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
+        <v>12</v>
+      </c>
+      <c r="B12" t="s">
         <v>52</v>
-      </c>
-      <c r="B12" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
+        <v>13</v>
+      </c>
+      <c r="B13" t="s">
         <v>53</v>
-      </c>
-      <c r="B13" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
+        <v>14</v>
+      </c>
+      <c r="B14" t="s">
         <v>54</v>
-      </c>
-      <c r="B14" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
+        <v>15</v>
+      </c>
+      <c r="B15" t="s">
         <v>55</v>
-      </c>
-      <c r="B15" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
+        <v>16</v>
+      </c>
+      <c r="B16" t="s">
         <v>56</v>
-      </c>
-      <c r="B16" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
+        <v>17</v>
+      </c>
+      <c r="B17" t="s">
         <v>57</v>
-      </c>
-      <c r="B17" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
+        <v>18</v>
+      </c>
+      <c r="B18" t="s">
         <v>58</v>
-      </c>
-      <c r="B18" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
+        <v>19</v>
+      </c>
+      <c r="B19" t="s">
         <v>59</v>
-      </c>
-      <c r="B19" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
+        <v>20</v>
+      </c>
+      <c r="B20" t="s">
         <v>60</v>
-      </c>
-      <c r="B20" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
+        <v>21</v>
+      </c>
+      <c r="B21" t="s">
         <v>61</v>
-      </c>
-      <c r="B21" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
+        <v>22</v>
+      </c>
+      <c r="B22" t="s">
         <v>62</v>
-      </c>
-      <c r="B22" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
+        <v>23</v>
+      </c>
+      <c r="B23" t="s">
         <v>63</v>
-      </c>
-      <c r="B23" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" t="s">
         <v>64</v>
-      </c>
-      <c r="B24" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
+        <v>25</v>
+      </c>
+      <c r="B25" t="s">
         <v>65</v>
-      </c>
-      <c r="B25" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
+        <v>26</v>
+      </c>
+      <c r="B26" t="s">
         <v>66</v>
-      </c>
-      <c r="B26" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
+        <v>27</v>
+      </c>
+      <c r="B27" t="s">
         <v>67</v>
-      </c>
-      <c r="B27" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
+        <v>28</v>
+      </c>
+      <c r="B28" t="s">
         <v>68</v>
-      </c>
-      <c r="B28" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
+        <v>29</v>
+      </c>
+      <c r="B29" t="s">
         <v>69</v>
-      </c>
-      <c r="B29" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
+        <v>30</v>
+      </c>
+      <c r="B30" t="s">
         <v>70</v>
-      </c>
-      <c r="B30" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
+        <v>31</v>
+      </c>
+      <c r="B31" t="s">
         <v>71</v>
-      </c>
-      <c r="B31" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
+        <v>32</v>
+      </c>
+      <c r="B32" t="s">
         <v>72</v>
-      </c>
-      <c r="B32" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
+        <v>33</v>
+      </c>
+      <c r="B33" t="s">
         <v>73</v>
-      </c>
-      <c r="B33" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
+        <v>34</v>
+      </c>
+      <c r="B34" t="s">
         <v>74</v>
-      </c>
-      <c r="B34" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
+        <v>35</v>
+      </c>
+      <c r="B35" t="s">
         <v>75</v>
-      </c>
-      <c r="B35" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
+        <v>36</v>
+      </c>
+      <c r="B36" t="s">
         <v>76</v>
-      </c>
-      <c r="B36" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
+        <v>37</v>
+      </c>
+      <c r="B37" t="s">
         <v>77</v>
-      </c>
-      <c r="B37" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
+        <v>38</v>
+      </c>
+      <c r="B38" t="s">
         <v>78</v>
-      </c>
-      <c r="B38" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
+        <v>39</v>
+      </c>
+      <c r="B39" t="s">
         <v>79</v>
-      </c>
-      <c r="B39" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
+        <v>40</v>
+      </c>
+      <c r="B40" t="s">
         <v>80</v>
-      </c>
-      <c r="B40" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
+        <v>41</v>
+      </c>
+      <c r="B41" t="s">
         <v>81</v>
-      </c>
-      <c r="B41" t="s">
-        <v>41</v>
       </c>
     </row>
   </sheetData>
